--- a/扫描数据.xlsx
+++ b/扫描数据.xlsx
@@ -4,16 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$K$1:$K$1800</definedName>
     <definedName name="ExternalData_1" localSheetId="0">Sheet2!$A$1:$I$1450</definedName>
+    <definedName name="ExternalData_1" localSheetId="3">Sheet4!$A$1:$L$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$L$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,11 +44,18 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="test_hit_toa_tot" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="C:\Users\dell\Desktop\code_4_17_test\code_4_17_test\code_4_17_test\front\TB_4_1\test_hit_total\test_hit_toa_tot.txt" tab="0" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11600" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12064" uniqueCount="1310">
   <si>
     <t>0</t>
   </si>
@@ -3651,6 +3661,330 @@
   </si>
   <si>
     <t>00000101101111001111100000</t>
+  </si>
+  <si>
+    <t>00001100111011001110010000</t>
+  </si>
+  <si>
+    <t>000011001</t>
+  </si>
+  <si>
+    <t>00000100101010111101110000</t>
+  </si>
+  <si>
+    <t>000001001</t>
+  </si>
+  <si>
+    <t>00000101101010100011100000</t>
+  </si>
+  <si>
+    <t>00000101011101111001100000</t>
+  </si>
+  <si>
+    <t>00000101010110011011010000</t>
+  </si>
+  <si>
+    <t>00000101011010011011000000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>00000111001000100100010000</t>
+  </si>
+  <si>
+    <t>000001110</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>00000111010001100011010000</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>00000111000010110111110000</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>00000111000101111110100000</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>00000111001010110101000000</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>00000111001010010010010000</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>00000111010101010010100000</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>00000111010101010100110000</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>00000111001011001101000000</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>00000111001011101001110000</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>00000111010111001111000000</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>00000111010111110000010000</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>00000111001111000010010000</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>00000111001111010010000000</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>00000111001111010000100000</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>00000111011110001010000000</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>00000111011110010001010000</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>00000111011110001011100000</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>00000111011110011101110000</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>00000111011110011110010000</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>00000111011101110010010000</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>00000111011101010011100000</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>00000111011101011100000000</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>00000111011101000011000000</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>00000111011101011000110000</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>00000111011011000110010000</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>00000111011011110011100000</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>00000111011011011101000000</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>00000111011011010010110000</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>00000111011011010110110000</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>00000111011011110111010000</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>00000111011011111010110000</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>00000111010110010110100000</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>00000111010110101010110000</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>00000111010110010110000000</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>00000111010110110001000000</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>00000111010110001000100000</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>00000111010110000100110000</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>00000111010110001100000000</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>00000111010110100001000000</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>00000111010110001000000000</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>00000111010110000000100000</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>00000111010110000101100000</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>00000111001101011001100000</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>00000111001101001100100000</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>00000111001101100101010000</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>00000111001101101011100000</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>00000111001101011100110000</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>00000111001101001111100000</t>
+  </si>
+  <si>
+    <t>221</t>
   </si>
 </sst>
 </file>
@@ -5882,6 +6216,1521 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>TOA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"TOA"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$M$1:$M$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$K$1:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>368.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304.6875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279.6875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>257.8125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242.1875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>239.0625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>235.9375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>234.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232.8125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>231.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>229.6875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>229.6875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>228.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>228.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>226.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>226.5625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.4375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>223.4375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>223.4375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>221.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>221.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>221.875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>221.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>221.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>220.3125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>220.3125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>220.3125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>220.3125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>220.3125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>217.1875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>215.625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>215.625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>215.625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>215.625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>215.625</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>215.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="587045465"/>
+        <c:axId val="314869975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="587045465"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Qin/e</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314869975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="314869975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>数字输出</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>TOA/ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587045465"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"ToT"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ToT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$M$1:$M$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$O$1:$O$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>397.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>690.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>870.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2457</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2539</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2868</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3194</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3275</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3518</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3598</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3679</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4082</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4162</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4242</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4323</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4483</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4563</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4643</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4723</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4803</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4884</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4964</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5044</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5124</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5283</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5363</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="825399709"/>
+        <c:axId val="178206597"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="825399709"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Qin/e</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178206597"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="178206597"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>数字输出</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ToT/ns</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825399709"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5923,6 +7772,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7003,6 +8932,1081 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10174">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:noFill/>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10172">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:noFill/>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7068,8 +10072,77 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>518795</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3" descr="7b0a202020202263686172745265734964223a20223137383531323434220a7d0a"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10691495" y="1394460"/>
+        <a:ext cx="6796405" cy="5304155"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>527685</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10700385" y="6880860"/>
+        <a:ext cx="5720715" cy="4894580"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63025,7 +66098,7 @@
   <sheetPr/>
   <dimension ref="A1:H5658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="E17" workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
@@ -91848,4 +94921,2877 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="9" width="3.375" customWidth="1"/>
+    <col min="10" max="10" width="4.375" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="5.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3693</v>
+      </c>
+      <c r="C1" s="2">
+        <v>3971</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2">
+        <v>368.75</v>
+      </c>
+      <c r="L1" s="2">
+        <v>400</v>
+      </c>
+      <c r="M1">
+        <v>150</v>
+      </c>
+      <c r="N1">
+        <f>B1/10</f>
+        <v>369.3</v>
+      </c>
+      <c r="O1">
+        <f>C1/10</f>
+        <v>397.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3060</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6901</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="K2" s="2">
+        <v>304.6875</v>
+      </c>
+      <c r="L2" s="2">
+        <v>700</v>
+      </c>
+      <c r="M2">
+        <v>200</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N12" si="0">B2/10</f>
+        <v>306</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O33" si="1">C2/10</f>
+        <v>690.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2810</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8704</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="K3" s="2">
+        <v>279.6875</v>
+      </c>
+      <c r="L3" s="2">
+        <v>875</v>
+      </c>
+      <c r="M3">
+        <v>250</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>870.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2670</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10090</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="K4" s="2">
+        <v>265.625</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>300</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2580</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11270</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="K5" s="2">
+        <v>257.8125</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1125</v>
+      </c>
+      <c r="M5">
+        <v>350</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2517</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12340</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K6" s="2">
+        <v>251.5625</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1225</v>
+      </c>
+      <c r="M6">
+        <v>400</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>251.7</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2461</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13320</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K7" s="2">
+        <v>245.3125</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1325</v>
+      </c>
+      <c r="M7">
+        <v>450</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>246.1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2426</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14270</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K8" s="2">
+        <v>242.1875</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1425</v>
+      </c>
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>242.6</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2398</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15180</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K9" s="2">
+        <v>239.0625</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="M9">
+        <v>550</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>239.8</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2374</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16070</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K10" s="2">
+        <v>235.9375</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1625</v>
+      </c>
+      <c r="M10">
+        <v>600</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>237.4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2354</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16950</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K11" s="2">
+        <v>234.375</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1700</v>
+      </c>
+      <c r="M11">
+        <v>650</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>235.4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2337</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17820</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K12" s="2">
+        <v>232.8125</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1800</v>
+      </c>
+      <c r="M12">
+        <v>700</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>233.7</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2324</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18680</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K13" s="2">
+        <v>231.25</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1875</v>
+      </c>
+      <c r="M13">
+        <v>750</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N58" si="2">B13/10</f>
+        <v>232.4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2312</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19540</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K14" s="2">
+        <v>229.6875</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1950</v>
+      </c>
+      <c r="M14">
+        <v>800</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>231.2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2301</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20390</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K15" s="2">
+        <v>229.6875</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2050</v>
+      </c>
+      <c r="M15">
+        <v>850</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>230.1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2291</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21230</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K16" s="2">
+        <v>228.125</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2125</v>
+      </c>
+      <c r="M16">
+        <v>900</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>229.1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2282</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22070</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K17" s="2">
+        <v>228.125</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2200</v>
+      </c>
+      <c r="M17">
+        <v>950</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>228.2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2274</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22910</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K18" s="2">
+        <v>226.5625</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2300</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>227.4</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2267</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23740</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K19" s="2">
+        <v>226.5625</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2375</v>
+      </c>
+      <c r="M19">
+        <v>1050</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>226.7</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2260</v>
+      </c>
+      <c r="C20" s="2">
+        <v>24570</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K20" s="2">
+        <v>225</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2450</v>
+      </c>
+      <c r="M20">
+        <v>1100</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2254</v>
+      </c>
+      <c r="C21" s="2">
+        <v>25390</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K21" s="2">
+        <v>225</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2550</v>
+      </c>
+      <c r="M21">
+        <v>1150</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>225.4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2248</v>
+      </c>
+      <c r="C22" s="2">
+        <v>26220</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K22" s="2">
+        <v>223.4375</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2625</v>
+      </c>
+      <c r="M22">
+        <v>1200</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>224.8</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2243</v>
+      </c>
+      <c r="C23" s="2">
+        <v>27040</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K23" s="2">
+        <v>223.4375</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2700</v>
+      </c>
+      <c r="M23">
+        <v>1250</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>224.3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2238</v>
+      </c>
+      <c r="C24" s="2">
+        <v>27860</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K24" s="2">
+        <v>223.4375</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2775</v>
+      </c>
+      <c r="M24">
+        <v>1300</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>223.8</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2234</v>
+      </c>
+      <c r="C25" s="2">
+        <v>28680</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K25" s="2">
+        <v>221.875</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2875</v>
+      </c>
+      <c r="M25">
+        <v>1350</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>223.4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2230</v>
+      </c>
+      <c r="C26" s="2">
+        <v>29500</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K26" s="2">
+        <v>221.875</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2950</v>
+      </c>
+      <c r="M26">
+        <v>1400</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2226</v>
+      </c>
+      <c r="C27" s="2">
+        <v>30310</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K27" s="2">
+        <v>221.875</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3025</v>
+      </c>
+      <c r="M27">
+        <v>1450</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>222.6</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2222</v>
+      </c>
+      <c r="C28" s="2">
+        <v>31120</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K28" s="2">
+        <v>221.875</v>
+      </c>
+      <c r="L28" s="2">
+        <v>3100</v>
+      </c>
+      <c r="M28">
+        <v>1500</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>222.2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2219</v>
+      </c>
+      <c r="C29" s="2">
+        <v>31940</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K29" s="2">
+        <v>221.875</v>
+      </c>
+      <c r="L29" s="2">
+        <v>3200</v>
+      </c>
+      <c r="M29">
+        <v>1550</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>221.9</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2216</v>
+      </c>
+      <c r="C30" s="2">
+        <v>32750</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K30" s="2">
+        <v>220.3125</v>
+      </c>
+      <c r="L30" s="2">
+        <v>3275</v>
+      </c>
+      <c r="M30">
+        <v>1600</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>221.6</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2212</v>
+      </c>
+      <c r="C31" s="2">
+        <v>33560</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K31" s="2">
+        <v>220.3125</v>
+      </c>
+      <c r="L31" s="2">
+        <v>3350</v>
+      </c>
+      <c r="M31">
+        <v>1650</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>221.2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2210</v>
+      </c>
+      <c r="C32" s="2">
+        <v>34370</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K32" s="2">
+        <v>220.3125</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3425</v>
+      </c>
+      <c r="M32">
+        <v>1700</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2207</v>
+      </c>
+      <c r="C33" s="2">
+        <v>35180</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K33" s="2">
+        <v>220.3125</v>
+      </c>
+      <c r="L33" s="2">
+        <v>3525</v>
+      </c>
+      <c r="M33">
+        <v>1750</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>220.7</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2204</v>
+      </c>
+      <c r="C34" s="2">
+        <v>35980</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K34" s="2">
+        <v>220.3125</v>
+      </c>
+      <c r="L34" s="2">
+        <v>3600</v>
+      </c>
+      <c r="M34">
+        <v>1800</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>220.4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:O58" si="3">C34/10</f>
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2202</v>
+      </c>
+      <c r="C35" s="2">
+        <v>36790</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K35" s="2">
+        <v>218.75</v>
+      </c>
+      <c r="L35" s="2">
+        <v>3675</v>
+      </c>
+      <c r="M35">
+        <v>1850</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>220.2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2199</v>
+      </c>
+      <c r="C36" s="2">
+        <v>37600</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K36" s="2">
+        <v>218.75</v>
+      </c>
+      <c r="L36" s="2">
+        <v>3750</v>
+      </c>
+      <c r="M36">
+        <v>1900</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>219.9</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2197</v>
+      </c>
+      <c r="C37" s="2">
+        <v>38400</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K37" s="2">
+        <v>218.75</v>
+      </c>
+      <c r="L37" s="2">
+        <v>3825</v>
+      </c>
+      <c r="M37">
+        <v>1950</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>219.7</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2195</v>
+      </c>
+      <c r="C38" s="2">
+        <v>39210</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K38" s="2">
+        <v>218.75</v>
+      </c>
+      <c r="L38" s="2">
+        <v>3925</v>
+      </c>
+      <c r="M38">
+        <v>2000</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>219.5</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2193</v>
+      </c>
+      <c r="C39" s="2">
+        <v>40010</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K39" s="2">
+        <v>218.75</v>
+      </c>
+      <c r="L39" s="2">
+        <v>4000</v>
+      </c>
+      <c r="M39">
+        <v>2050</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>219.3</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2191</v>
+      </c>
+      <c r="C40" s="2">
+        <v>40820</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K40" s="2">
+        <v>218.75</v>
+      </c>
+      <c r="L40" s="2">
+        <v>4075</v>
+      </c>
+      <c r="M40">
+        <v>2100</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>219.1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2189</v>
+      </c>
+      <c r="C41" s="2">
+        <v>41620</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K41" s="2">
+        <v>218.75</v>
+      </c>
+      <c r="L41" s="2">
+        <v>4150</v>
+      </c>
+      <c r="M41">
+        <v>2150</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>218.9</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2187</v>
+      </c>
+      <c r="C42" s="2">
+        <v>42420</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K42" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L42" s="2">
+        <v>4225</v>
+      </c>
+      <c r="M42">
+        <v>2200</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>218.7</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2185</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43230</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K43" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L43" s="2">
+        <v>4325</v>
+      </c>
+      <c r="M43">
+        <v>2250</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>218.5</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2184</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44030</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K44" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L44" s="2">
+        <v>4400</v>
+      </c>
+      <c r="M44">
+        <v>2300</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>218.4</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2182</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44830</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K45" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L45" s="2">
+        <v>4475</v>
+      </c>
+      <c r="M45">
+        <v>2350</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>218.2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2180</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45630</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K46" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L46" s="2">
+        <v>4550</v>
+      </c>
+      <c r="M46">
+        <v>2400</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2179</v>
+      </c>
+      <c r="C47" s="2">
+        <v>46430</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K47" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L47" s="2">
+        <v>4625</v>
+      </c>
+      <c r="M47">
+        <v>2450</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>217.9</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2177</v>
+      </c>
+      <c r="C48" s="2">
+        <v>47230</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K48" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L48" s="2">
+        <v>4725</v>
+      </c>
+      <c r="M48">
+        <v>2500</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>217.7</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2176</v>
+      </c>
+      <c r="C49" s="2">
+        <v>48030</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K49" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L49" s="2">
+        <v>4800</v>
+      </c>
+      <c r="M49">
+        <v>2550</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>217.6</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2175</v>
+      </c>
+      <c r="C50" s="2">
+        <v>48840</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K50" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L50" s="2">
+        <v>4875</v>
+      </c>
+      <c r="M50">
+        <v>2600</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>217.5</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2173</v>
+      </c>
+      <c r="C51" s="2">
+        <v>49640</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K51" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L51" s="2">
+        <v>4950</v>
+      </c>
+      <c r="M51">
+        <v>2650</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>217.3</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2172</v>
+      </c>
+      <c r="C52" s="2">
+        <v>50440</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K52" s="2">
+        <v>217.1875</v>
+      </c>
+      <c r="L52" s="2">
+        <v>5025</v>
+      </c>
+      <c r="M52">
+        <v>2700</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>217.2</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2171</v>
+      </c>
+      <c r="C53" s="2">
+        <v>51240</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K53" s="2">
+        <v>215.625</v>
+      </c>
+      <c r="L53" s="2">
+        <v>5125</v>
+      </c>
+      <c r="M53">
+        <v>2750</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>217.1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2169</v>
+      </c>
+      <c r="C54" s="2">
+        <v>52040</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K54" s="2">
+        <v>215.625</v>
+      </c>
+      <c r="L54" s="2">
+        <v>5200</v>
+      </c>
+      <c r="M54">
+        <v>2800</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>216.9</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2168</v>
+      </c>
+      <c r="C55" s="2">
+        <v>52830</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K55" s="2">
+        <v>215.625</v>
+      </c>
+      <c r="L55" s="2">
+        <v>5275</v>
+      </c>
+      <c r="M55">
+        <v>2850</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>216.8</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2167</v>
+      </c>
+      <c r="C56" s="2">
+        <v>53630</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K56" s="2">
+        <v>215.625</v>
+      </c>
+      <c r="L56" s="2">
+        <v>5350</v>
+      </c>
+      <c r="M56">
+        <v>2900</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>216.7</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="3"/>
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2166</v>
+      </c>
+      <c r="C57" s="2">
+        <v>54430</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K57" s="2">
+        <v>215.625</v>
+      </c>
+      <c r="L57" s="2">
+        <v>5425</v>
+      </c>
+      <c r="M57">
+        <v>2950</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>216.6</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="3"/>
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2165</v>
+      </c>
+      <c r="C58" s="2">
+        <v>55230</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K58" s="2">
+        <v>215.625</v>
+      </c>
+      <c r="L58" s="2">
+        <v>5525</v>
+      </c>
+      <c r="M58">
+        <v>3000</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>216.5</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="3"/>
+        <v>5523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>